--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:16:09+00:00</t>
+    <t>2024-10-30T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:20:03+00:00</t>
+    <t>2024-10-30T10:28:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:28:34+00:00</t>
+    <t>2024-10-30T10:31:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:31:07+00:00</t>
+    <t>2024-10-30T10:47:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:47:34+00:00</t>
+    <t>2024-10-30T10:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:56:03+00:00</t>
+    <t>2024-10-30T13:21:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:21:16+00:00</t>
+    <t>2024-10-30T13:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:25:18+00:00</t>
+    <t>2024-10-30T13:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:40:48+00:00</t>
+    <t>2024-10-30T13:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:56:40+00:00</t>
+    <t>2024-10-30T13:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:57:24+00:00</t>
+    <t>2024-10-30T16:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:05:44+00:00</t>
+    <t>2024-10-30T16:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="567">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:09:37+00:00</t>
+    <t>2024-10-30T16:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -898,8 +898,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t xml:space="preserve">Quantity
+</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -930,6 +930,165 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>g/L</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t>ele-1
+qty-3</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -965,26 +1124,7 @@
     <t>Observation.dataAbsentReason.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Observation.dataAbsentReason.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason.coding</t>
@@ -1073,9 +1213,6 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1616,6 +1753,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1969,7 +2110,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP62"/>
+  <dimension ref="A1:AP69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2003,7 +2144,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4835,20 +4976,16 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N24" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="O24" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4872,13 +5009,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -4896,7 +5033,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4905,10 +5042,10 @@
         <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -4917,10 +5054,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4931,21 +5068,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -4957,15 +5094,17 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5002,31 +5141,31 @@
         <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
@@ -5038,7 +5177,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5049,21 +5188,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -5072,21 +5211,23 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5122,31 +5263,31 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5155,10 +5296,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5169,10 +5310,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5183,62 +5324,64 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="P27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q27" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="O27" t="s" s="2">
+      <c r="R27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="P27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="Z27" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5256,13 +5399,13 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>105</v>
@@ -5277,10 +5420,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5291,10 +5434,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5302,7 +5445,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>93</v>
@@ -5314,19 +5457,23 @@
         <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5335,7 +5482,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5374,7 +5521,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5383,10 +5530,10 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
@@ -5395,10 +5542,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>114</v>
+        <v>325</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5409,21 +5556,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5432,21 +5579,23 @@
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5455,7 +5604,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5482,31 +5631,31 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5515,10 +5664,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5529,10 +5678,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5555,19 +5704,19 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5577,7 +5726,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5616,7 +5765,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5637,10 +5786,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5651,10 +5800,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5674,21 +5823,23 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5712,13 +5863,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>82</v>
+        <v>347</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5736,7 +5887,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5745,7 +5896,7 @@
         <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>105</v>
+        <v>350</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>106</v>
@@ -5757,10 +5908,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>332</v>
+        <v>107</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5771,10 +5922,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5782,7 +5933,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>93</v>
@@ -5794,23 +5945,19 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5858,7 +6005,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5867,10 +6014,10 @@
         <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -5879,10 +6026,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>341</v>
+        <v>114</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -5893,21 +6040,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5916,23 +6063,21 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>343</v>
+        <v>142</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5968,31 +6113,31 @@
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6001,10 +6146,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>348</v>
+        <v>107</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6015,10 +6160,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6029,7 +6174,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6041,19 +6186,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6102,13 +6247,13 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>105</v>
@@ -6123,10 +6268,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6137,10 +6282,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6160,23 +6305,19 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6224,7 +6365,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6233,10 +6374,10 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6245,10 +6386,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>365</v>
+        <v>114</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6259,14 +6400,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>367</v>
+        <v>140</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6285,20 +6426,18 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>368</v>
+        <v>142</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6322,31 +6461,31 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6358,33 +6497,33 @@
         <v>105</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6392,10 +6531,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
@@ -6404,22 +6543,22 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>379</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6468,13 +6607,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>105</v>
@@ -6489,10 +6628,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6503,10 +6642,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6526,19 +6665,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6564,13 +6703,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6588,7 +6727,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6606,27 +6745,27 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6634,7 +6773,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>93</v>
@@ -6646,22 +6785,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>399</v>
+        <v>310</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6686,13 +6825,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6710,7 +6849,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6731,10 +6870,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6745,10 +6884,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6768,21 +6907,23 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>406</v>
+        <v>291</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6830,7 +6971,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6842,33 +6983,33 @@
         <v>105</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6888,21 +7029,23 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6950,7 +7093,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6962,33 +7105,33 @@
         <v>105</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>422</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6996,34 +7139,34 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="I42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>424</v>
+        <v>291</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7072,19 +7215,19 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>429</v>
+        <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7093,10 +7236,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7107,21 +7250,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7133,16 +7276,20 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>413</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7166,13 +7313,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>82</v>
+        <v>347</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7190,49 +7337,49 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>304</v>
+        <v>411</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>114</v>
+        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7251,18 +7398,20 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>141</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>142</v>
+        <v>425</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7298,19 +7447,19 @@
         <v>82</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>307</v>
+        <v>423</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7322,7 +7471,7 @@
         <v>105</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -7331,10 +7480,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>107</v>
+        <v>430</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7345,46 +7494,44 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7408,13 +7555,13 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>82</v>
+        <v>436</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7432,45 +7579,45 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>438</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>107</v>
+        <v>439</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7478,7 +7625,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>93</v>
@@ -7493,18 +7640,20 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>440</v>
+        <v>198</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7528,13 +7677,13 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7552,7 +7701,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7561,10 +7710,10 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>444</v>
+        <v>105</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>445</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7573,10 +7722,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7587,10 +7736,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7601,7 +7750,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7613,16 +7762,16 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7672,7 +7821,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7681,36 +7830,36 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>444</v>
+        <v>105</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>445</v>
+        <v>171</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7721,7 +7870,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7733,20 +7882,18 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>198</v>
+        <v>460</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7770,13 +7917,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7794,7 +7941,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7806,33 +7953,33 @@
         <v>105</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>82</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7843,10 +7990,10 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
@@ -7855,19 +8002,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>198</v>
+        <v>469</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7892,13 +8039,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7916,7 +8063,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7928,19 +8075,19 @@
         <v>105</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>106</v>
+        <v>474</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>376</v>
+        <v>476</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7951,10 +8098,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7965,7 +8112,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -7977,20 +8124,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>469</v>
+        <v>291</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>470</v>
+        <v>292</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8038,7 +8181,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>468</v>
+        <v>294</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8047,10 +8190,10 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8059,10 +8202,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>476</v>
+        <v>114</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8073,21 +8216,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8099,16 +8242,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>478</v>
+        <v>142</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>479</v>
+        <v>296</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>337</v>
+        <v>144</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8146,31 +8289,31 @@
         <v>82</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>477</v>
+        <v>297</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8179,10 +8322,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>480</v>
+        <v>107</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8193,44 +8336,46 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8278,7 +8423,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8290,7 +8435,7 @@
         <v>105</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8299,10 +8444,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>486</v>
+        <v>82</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>487</v>
+        <v>107</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8313,10 +8458,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8324,10 +8469,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8336,19 +8481,19 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8398,19 +8543,19 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>105</v>
+        <v>489</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>171</v>
+        <v>490</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8419,10 +8564,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8433,10 +8578,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8447,7 +8592,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8456,23 +8601,21 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8520,19 +8663,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>105</v>
+        <v>489</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>106</v>
+        <v>490</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8541,10 +8684,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8555,10 +8698,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8569,7 +8712,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8581,16 +8724,20 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>302</v>
+        <v>498</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8614,13 +8761,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>502</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>503</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8638,7 +8785,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>304</v>
+        <v>497</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8647,22 +8794,22 @@
         <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>114</v>
+        <v>421</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8673,21 +8820,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8699,18 +8846,20 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>142</v>
+        <v>507</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>306</v>
+        <v>508</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -8734,31 +8883,31 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>82</v>
+        <v>512</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>307</v>
+        <v>506</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8770,19 +8919,19 @@
         <v>105</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>107</v>
+        <v>421</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8793,45 +8942,45 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>141</v>
+        <v>514</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>436</v>
+        <v>515</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>437</v>
+        <v>516</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>144</v>
+        <v>517</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>153</v>
+        <v>518</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8880,19 +9029,19 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>438</v>
+        <v>513</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>149</v>
+        <v>519</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -8901,10 +9050,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>107</v>
+        <v>521</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8915,10 +9064,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8926,7 +9075,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>93</v>
@@ -8938,23 +9087,21 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
@@ -8978,13 +9125,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9002,10 +9149,10 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>93</v>
@@ -9020,16 +9167,16 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>508</v>
+        <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>220</v>
+        <v>491</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>221</v>
+        <v>525</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9037,10 +9184,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9051,7 +9198,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9063,20 +9210,18 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>280</v>
+        <v>527</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>282</v>
+        <v>529</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9124,45 +9269,45 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>287</v>
+        <v>531</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>288</v>
+        <v>532</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9173,7 +9318,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9182,23 +9327,21 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>198</v>
+        <v>534</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9222,13 +9365,13 @@
         <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9246,19 +9389,19 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>298</v>
+        <v>105</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9267,10 +9410,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>107</v>
+        <v>531</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>299</v>
+        <v>538</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9281,14 +9424,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9304,22 +9447,22 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>198</v>
+        <v>469</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>368</v>
+        <v>540</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>369</v>
+        <v>541</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>370</v>
+        <v>542</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>371</v>
+        <v>543</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9344,13 +9487,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9368,7 +9511,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9386,27 +9529,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>375</v>
+        <v>544</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>376</v>
+        <v>545</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9417,7 +9560,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -9429,20 +9572,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>519</v>
+        <v>292</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9490,41 +9629,893 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>518</v>
+        <v>294</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP62" t="s" s="2">
+      <c r="H63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP62">
+  <autoFilter ref="A1:AP69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9534,7 +10525,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:49:36+00:00</t>
+    <t>2024-10-30T17:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T17:29:46+00:00</t>
+    <t>2024-11-08T13:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1496,7 +1496,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}mes-ir:L'intervalle de référence est obligatoire dans le cas où la donnée provient d'un résultat de biologie. {(extension.where(url= 'https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability').extension.where(url = 'identityStatus').value.code = 'VALI') implies (identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.8').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.9').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.10').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.11').exists())}</t>
   </si>
   <si>
     <t>OBX.7</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:33:24+00:00</t>
+    <t>2024-11-08T13:57:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:57:59+00:00</t>
+    <t>2024-12-11T16:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1496,7 +1496,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}mes-ir:L'intervalle de référence est obligatoire dans le cas où la donnée provient d'un résultat de biologie. {(extension.where(url= 'https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability').extension.where(url = 'identityStatus').value.code = 'VALI') implies (identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.8').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.9').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.10').exists() or identifier.where(system = 'urn:oid:1.2.250.1.213.1.4.11').exists())}</t>
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}mes-ir:L'intervalle de référence est obligatoire dans le cas où la donnée provient d'un compte rendu de biologie. {null}</t>
   </si>
   <si>
     <t>OBX.7</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:27:42+00:00</t>
+    <t>2024-12-11T16:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:36:57+00:00</t>
+    <t>2024-12-11T16:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:39:06+00:00</t>
+    <t>2024-12-11T17:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1028,7 +1028,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>g/L</t>
+    <t>mmol/L</t>
   </si>
   <si>
     <t>Quantity.unit</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:02:02+00:00</t>
+    <t>2024-12-11T17:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:11:59+00:00</t>
+    <t>2024-12-13T13:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:15+00:00</t>
+    <t>2024-12-13T13:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:38:24+00:00</t>
+    <t>2024-12-13T13:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-cholesterol-hdl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:39:29+00:00</t>
+    <t>2024-12-13T13:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>93</v>
